--- a/data/outputs/数学期刊(上)_altmetric/25.Russian Mathematics.xlsx
+++ b/data/outputs/数学期刊(上)_altmetric/25.Russian Mathematics.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG104"/>
+  <dimension ref="A1:AH104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -532,6 +532,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -643,6 +648,9 @@
       <c r="AG2" t="n">
         <v>0</v>
       </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -754,6 +762,9 @@
       <c r="AG3" t="n">
         <v>0</v>
       </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -867,6 +878,9 @@
       <c r="AG4" t="n">
         <v>0</v>
       </c>
+      <c r="AH4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -980,6 +994,9 @@
       <c r="AG5" t="n">
         <v>0</v>
       </c>
+      <c r="AH5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1093,6 +1110,9 @@
       <c r="AG6" t="n">
         <v>0</v>
       </c>
+      <c r="AH6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1204,6 +1224,9 @@
       <c r="AG7" t="n">
         <v>0</v>
       </c>
+      <c r="AH7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1317,6 +1340,9 @@
       <c r="AG8" t="n">
         <v>0</v>
       </c>
+      <c r="AH8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1426,6 +1452,9 @@
         <v>0</v>
       </c>
       <c r="AG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1539,6 +1568,9 @@
       <c r="AG10" t="n">
         <v>0</v>
       </c>
+      <c r="AH10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1652,6 +1684,9 @@
       <c r="AG11" t="n">
         <v>0</v>
       </c>
+      <c r="AH11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1765,6 +1800,9 @@
       <c r="AG12" t="n">
         <v>0</v>
       </c>
+      <c r="AH12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1878,6 +1916,9 @@
       <c r="AG13" t="n">
         <v>0</v>
       </c>
+      <c r="AH13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1989,6 +2030,9 @@
       <c r="AG14" t="n">
         <v>0</v>
       </c>
+      <c r="AH14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2102,6 +2146,9 @@
       <c r="AG15" t="n">
         <v>0</v>
       </c>
+      <c r="AH15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2215,6 +2262,9 @@
       <c r="AG16" t="n">
         <v>0</v>
       </c>
+      <c r="AH16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2324,6 +2374,9 @@
         <v>0</v>
       </c>
       <c r="AG17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2437,6 +2490,9 @@
       <c r="AG18" t="n">
         <v>0</v>
       </c>
+      <c r="AH18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2550,6 +2606,9 @@
       <c r="AG19" t="n">
         <v>0</v>
       </c>
+      <c r="AH19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2661,6 +2720,9 @@
       <c r="AG20" t="n">
         <v>0</v>
       </c>
+      <c r="AH20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2774,6 +2836,9 @@
       <c r="AG21" t="n">
         <v>0</v>
       </c>
+      <c r="AH21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2887,6 +2952,9 @@
       <c r="AG22" t="n">
         <v>0</v>
       </c>
+      <c r="AH22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2998,6 +3066,9 @@
       <c r="AG23" t="n">
         <v>0</v>
       </c>
+      <c r="AH23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3111,6 +3182,9 @@
       <c r="AG24" t="n">
         <v>0</v>
       </c>
+      <c r="AH24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3224,6 +3298,9 @@
       <c r="AG25" t="n">
         <v>0</v>
       </c>
+      <c r="AH25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3335,6 +3412,9 @@
         <v>0</v>
       </c>
       <c r="AG26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3446,6 +3526,9 @@
       <c r="AG27" t="n">
         <v>0</v>
       </c>
+      <c r="AH27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3561,6 +3644,9 @@
       <c r="AG28" t="n">
         <v>0</v>
       </c>
+      <c r="AH28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3676,6 +3762,9 @@
       <c r="AG29" t="n">
         <v>0</v>
       </c>
+      <c r="AH29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3791,6 +3880,9 @@
       <c r="AG30" t="n">
         <v>0</v>
       </c>
+      <c r="AH30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3908,6 +4000,9 @@
       <c r="AG31" t="n">
         <v>0</v>
       </c>
+      <c r="AH31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4025,6 +4120,9 @@
       <c r="AG32" t="n">
         <v>0</v>
       </c>
+      <c r="AH32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4142,6 +4240,9 @@
       <c r="AG33" t="n">
         <v>0</v>
       </c>
+      <c r="AH33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4257,6 +4358,9 @@
       <c r="AG34" t="n">
         <v>0</v>
       </c>
+      <c r="AH34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4370,6 +4474,9 @@
         <v>0</v>
       </c>
       <c r="AG35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4481,6 +4588,9 @@
       <c r="AG36" t="n">
         <v>0</v>
       </c>
+      <c r="AH36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4592,6 +4702,9 @@
       <c r="AG37" t="n">
         <v>0</v>
       </c>
+      <c r="AH37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4703,6 +4816,9 @@
       <c r="AG38" t="n">
         <v>0</v>
       </c>
+      <c r="AH38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4816,6 +4932,9 @@
       <c r="AG39" t="n">
         <v>0</v>
       </c>
+      <c r="AH39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4929,6 +5048,9 @@
       <c r="AG40" t="n">
         <v>0</v>
       </c>
+      <c r="AH40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -5042,6 +5164,9 @@
       <c r="AG41" t="n">
         <v>0</v>
       </c>
+      <c r="AH41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5153,6 +5278,9 @@
       <c r="AG42" t="n">
         <v>0</v>
       </c>
+      <c r="AH42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5262,6 +5390,9 @@
         <v>0</v>
       </c>
       <c r="AG43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5373,6 +5504,9 @@
       <c r="AG44" t="n">
         <v>0</v>
       </c>
+      <c r="AH44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5486,6 +5620,9 @@
       <c r="AG45" t="n">
         <v>0</v>
       </c>
+      <c r="AH45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5597,6 +5734,9 @@
       <c r="AG46" t="n">
         <v>0</v>
       </c>
+      <c r="AH46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5708,6 +5848,9 @@
       <c r="AG47" t="n">
         <v>0</v>
       </c>
+      <c r="AH47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -5821,6 +5964,9 @@
       <c r="AG48" t="n">
         <v>0</v>
       </c>
+      <c r="AH48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -5932,6 +6078,9 @@
       <c r="AG49" t="n">
         <v>0</v>
       </c>
+      <c r="AH49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -6045,6 +6194,9 @@
       <c r="AG50" t="n">
         <v>0</v>
       </c>
+      <c r="AH50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -6158,6 +6310,9 @@
       <c r="AG51" t="n">
         <v>0</v>
       </c>
+      <c r="AH51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -6269,6 +6424,9 @@
       <c r="AG52" t="n">
         <v>0</v>
       </c>
+      <c r="AH52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -6380,6 +6538,9 @@
       <c r="AG53" t="n">
         <v>0</v>
       </c>
+      <c r="AH53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -6491,6 +6652,9 @@
         <v>0</v>
       </c>
       <c r="AG54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6602,6 +6766,9 @@
       <c r="AG55" t="n">
         <v>0</v>
       </c>
+      <c r="AH55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -6713,6 +6880,9 @@
       <c r="AG56" t="n">
         <v>0</v>
       </c>
+      <c r="AH56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -6824,6 +6994,9 @@
       <c r="AG57" t="n">
         <v>0</v>
       </c>
+      <c r="AH57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -6937,6 +7110,9 @@
       <c r="AG58" t="n">
         <v>0</v>
       </c>
+      <c r="AH58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -7050,6 +7226,9 @@
       <c r="AG59" t="n">
         <v>0</v>
       </c>
+      <c r="AH59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -7163,6 +7342,9 @@
       <c r="AG60" t="n">
         <v>0</v>
       </c>
+      <c r="AH60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -7274,6 +7456,9 @@
       <c r="AG61" t="n">
         <v>0</v>
       </c>
+      <c r="AH61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -7387,6 +7572,9 @@
       <c r="AG62" t="n">
         <v>0</v>
       </c>
+      <c r="AH62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -7498,6 +7686,9 @@
       <c r="AG63" t="n">
         <v>0</v>
       </c>
+      <c r="AH63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -7611,6 +7802,9 @@
       <c r="AG64" t="n">
         <v>0</v>
       </c>
+      <c r="AH64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -7724,6 +7918,9 @@
       <c r="AG65" t="n">
         <v>0</v>
       </c>
+      <c r="AH65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -7837,6 +8034,9 @@
       <c r="AG66" t="n">
         <v>0</v>
       </c>
+      <c r="AH66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -7950,6 +8150,9 @@
       <c r="AG67" t="n">
         <v>0</v>
       </c>
+      <c r="AH67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -8061,6 +8264,9 @@
       <c r="AG68" t="n">
         <v>0</v>
       </c>
+      <c r="AH68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -8174,6 +8380,9 @@
       <c r="AG69" t="n">
         <v>0</v>
       </c>
+      <c r="AH69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -8287,6 +8496,9 @@
       <c r="AG70" t="n">
         <v>0</v>
       </c>
+      <c r="AH70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -8398,6 +8610,9 @@
         <v>0</v>
       </c>
       <c r="AG71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8511,6 +8726,9 @@
       <c r="AG72" t="n">
         <v>0</v>
       </c>
+      <c r="AH72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -8622,6 +8840,9 @@
       <c r="AG73" t="n">
         <v>0</v>
       </c>
+      <c r="AH73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -8733,6 +8954,9 @@
       <c r="AG74" t="n">
         <v>0</v>
       </c>
+      <c r="AH74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -8846,6 +9070,9 @@
       <c r="AG75" t="n">
         <v>0</v>
       </c>
+      <c r="AH75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -8957,6 +9184,9 @@
       <c r="AG76" t="n">
         <v>0</v>
       </c>
+      <c r="AH76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -9068,6 +9298,9 @@
       <c r="AG77" t="n">
         <v>0</v>
       </c>
+      <c r="AH77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -9179,6 +9412,9 @@
       <c r="AG78" t="n">
         <v>0</v>
       </c>
+      <c r="AH78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -9292,6 +9528,9 @@
       <c r="AG79" t="n">
         <v>0</v>
       </c>
+      <c r="AH79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -9403,6 +9642,9 @@
         <v>0</v>
       </c>
       <c r="AG80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9516,6 +9758,9 @@
       <c r="AG81" t="n">
         <v>0</v>
       </c>
+      <c r="AH81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -9629,6 +9874,9 @@
       <c r="AG82" t="n">
         <v>0</v>
       </c>
+      <c r="AH82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -9742,6 +9990,9 @@
       <c r="AG83" t="n">
         <v>0</v>
       </c>
+      <c r="AH83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -9853,6 +10104,9 @@
       <c r="AG84" t="n">
         <v>0</v>
       </c>
+      <c r="AH84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -9964,6 +10218,9 @@
       <c r="AG85" t="n">
         <v>0</v>
       </c>
+      <c r="AH85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -10077,6 +10334,9 @@
       <c r="AG86" t="n">
         <v>0</v>
       </c>
+      <c r="AH86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -10190,6 +10450,9 @@
       <c r="AG87" t="n">
         <v>0</v>
       </c>
+      <c r="AH87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -10301,6 +10564,9 @@
       <c r="AG88" t="n">
         <v>0</v>
       </c>
+      <c r="AH88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -10414,6 +10680,9 @@
       <c r="AG89" t="n">
         <v>0</v>
       </c>
+      <c r="AH89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -10527,6 +10796,9 @@
       <c r="AG90" t="n">
         <v>0</v>
       </c>
+      <c r="AH90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -10640,6 +10912,9 @@
       <c r="AG91" t="n">
         <v>0</v>
       </c>
+      <c r="AH91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -10753,6 +11028,9 @@
       <c r="AG92" t="n">
         <v>0</v>
       </c>
+      <c r="AH92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -10866,6 +11144,9 @@
       <c r="AG93" t="n">
         <v>0</v>
       </c>
+      <c r="AH93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -10979,6 +11260,9 @@
       <c r="AG94" t="n">
         <v>0</v>
       </c>
+      <c r="AH94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -11090,6 +11374,9 @@
         <v>0</v>
       </c>
       <c r="AG95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11203,6 +11490,9 @@
       <c r="AG96" t="n">
         <v>0</v>
       </c>
+      <c r="AH96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -11316,6 +11606,9 @@
       <c r="AG97" t="n">
         <v>0</v>
       </c>
+      <c r="AH97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -11429,6 +11722,9 @@
       <c r="AG98" t="n">
         <v>0</v>
       </c>
+      <c r="AH98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -11540,6 +11836,9 @@
       <c r="AG99" t="n">
         <v>0</v>
       </c>
+      <c r="AH99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -11653,6 +11952,9 @@
       <c r="AG100" t="n">
         <v>0</v>
       </c>
+      <c r="AH100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -11764,6 +12066,9 @@
       <c r="AG101" t="n">
         <v>0</v>
       </c>
+      <c r="AH101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -11877,6 +12182,9 @@
       <c r="AG102" t="n">
         <v>0</v>
       </c>
+      <c r="AH102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -11988,6 +12296,9 @@
       <c r="AG103" t="n">
         <v>0</v>
       </c>
+      <c r="AH103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -12099,6 +12410,9 @@
         <v>0</v>
       </c>
       <c r="AG104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH104" t="n">
         <v>0</v>
       </c>
     </row>
